--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA1556A-91A1-4734-AE8F-CF135CC328BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F33440-1349-49EC-8228-3642668C2CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="467">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -974,14 +974,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>30、40、50岁时家境+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>成熟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>12、18岁时智力+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>形象管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>16、24岁时颜值+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>成年礼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1098,6 +1110,15 @@
     <t>AGE?[90]</t>
   </si>
   <si>
+    <t>AGE?[30,40,50]</t>
+  </si>
+  <si>
+    <t>AGE?[12,18]</t>
+  </si>
+  <si>
+    <t>AGE?[16,24]</t>
+  </si>
+  <si>
     <t>(AGE?[20])&amp;(INT&gt;8)</t>
   </si>
   <si>
@@ -1794,54 +1815,6 @@
   </si>
   <si>
     <t>不知道有什么用……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返老还童</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能会回到年轻的时候</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时光倒流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>或许时间会倒流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转世重修</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>渡劫失败重生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[40]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40岁时家境+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁时智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[18]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24岁时颜值+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[24]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2246,13 +2219,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q136"/>
+  <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
+      <selection pane="bottomRight" activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2285,7 +2258,7 @@
         <v>246</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
@@ -2306,22 +2279,22 @@
         <v>225</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2359,22 +2332,22 @@
         <v>157</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2385,7 +2358,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2399,7 +2372,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2422,10 +2395,10 @@
         <v>11</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="O5" s="1">
         <v>1113</v>
@@ -2445,13 +2418,13 @@
         <v>1</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2550,13 +2523,13 @@
         <v>2</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2587,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2610,13 +2583,13 @@
         <v>0</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,13 +2609,13 @@
         <v>3</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2692,7 +2665,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>153</v>
@@ -2724,7 +2697,7 @@
         <v>162</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -2827,13 +2800,13 @@
         <v>2</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2850,10 +2823,10 @@
         <v>2</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>11</v>
@@ -2876,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2893,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3099,7 +3072,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>203</v>
@@ -3122,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3147,7 +3120,7 @@
         <v>208</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -3195,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3217,7 +3190,7 @@
         <v>60</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>217</v>
@@ -3237,7 +3210,7 @@
         <v>228</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -3257,7 +3230,7 @@
         <v>229</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -3277,7 +3250,7 @@
         <v>231</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -3300,7 +3273,7 @@
         <v>233</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -3320,7 +3293,7 @@
         <v>235</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -3340,7 +3313,7 @@
         <v>237</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -3360,7 +3333,7 @@
         <v>239</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -3380,7 +3353,7 @@
         <v>241</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -3400,7 +3373,7 @@
         <v>243</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -3420,7 +3393,7 @@
         <v>245</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -3437,16 +3410,16 @@
         <v>248</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>468</v>
+        <v>249</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>467</v>
+        <v>285</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3454,19 +3427,19 @@
         <v>72</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>469</v>
+        <v>251</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>470</v>
+        <v>286</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3474,19 +3447,19 @@
         <v>73</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>471</v>
+        <v>253</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>472</v>
+        <v>287</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
       </c>
       <c r="I63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3494,13 +3467,13 @@
         <v>74</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -3514,10 +3487,10 @@
         <v>75</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -3531,10 +3504,10 @@
         <v>76</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -3548,10 +3521,10 @@
         <v>77</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -3562,13 +3535,13 @@
         <v>78</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -3582,13 +3555,13 @@
         <v>79</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -3602,13 +3575,13 @@
         <v>80</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -3622,13 +3595,13 @@
         <v>81</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -3642,13 +3615,13 @@
         <v>82</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -3662,10 +3635,10 @@
         <v>83</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -3676,10 +3649,10 @@
         <v>84</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -3690,10 +3663,10 @@
         <v>85</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -3704,13 +3677,13 @@
         <v>86</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -3724,13 +3697,13 @@
         <v>87</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -3744,13 +3717,13 @@
         <v>88</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -3764,13 +3737,13 @@
         <v>89</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -3784,13 +3757,13 @@
         <v>90</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -3804,13 +3777,13 @@
         <v>91</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -3824,13 +3797,13 @@
         <v>92</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -3844,13 +3817,13 @@
         <v>93</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -3873,13 +3846,13 @@
         <v>94</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -3902,13 +3875,13 @@
         <v>95</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E85" s="1">
         <v>2</v>
@@ -3931,10 +3904,10 @@
         <v>96</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -3946,7 +3919,7 @@
         <v>2</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3954,10 +3927,10 @@
         <v>97</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -3969,7 +3942,7 @@
         <v>5</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3977,10 +3950,10 @@
         <v>98</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -3989,7 +3962,7 @@
         <v>-10</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3997,13 +3970,13 @@
         <v>99</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -4017,13 +3990,13 @@
         <v>100</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -4037,13 +4010,13 @@
         <v>101</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -4057,13 +4030,13 @@
         <v>102</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -4086,13 +4059,13 @@
         <v>103</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -4115,13 +4088,13 @@
         <v>104</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -4144,10 +4117,10 @@
         <v>105</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -4164,10 +4137,10 @@
         <v>106</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -4181,13 +4154,13 @@
         <v>107</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -4210,13 +4183,13 @@
         <v>108</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -4239,13 +4212,13 @@
         <v>109</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -4268,13 +4241,13 @@
         <v>110</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -4297,10 +4270,10 @@
         <v>111</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -4317,10 +4290,10 @@
         <v>112</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -4337,13 +4310,13 @@
         <v>113</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -4369,13 +4342,13 @@
         <v>114</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -4401,13 +4374,13 @@
         <v>115</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
@@ -4418,13 +4391,13 @@
         <v>116</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="E106" s="1">
         <v>2</v>
@@ -4435,13 +4408,13 @@
         <v>117</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -4452,10 +4425,10 @@
         <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="E108" s="1">
         <v>0</v>
@@ -4466,10 +4439,10 @@
         <v>119</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -4480,10 +4453,10 @@
         <v>120</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
@@ -4494,10 +4467,10 @@
         <v>121</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -4508,10 +4481,10 @@
         <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
@@ -4522,10 +4495,10 @@
         <v>123</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
@@ -4536,10 +4509,10 @@
         <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
@@ -4550,22 +4523,22 @@
         <v>125</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="N115" s="6" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="O115" s="1">
         <v>1027</v>
@@ -4582,13 +4555,13 @@
         <v>126</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
@@ -4599,10 +4572,10 @@
         <v>127</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -4613,10 +4586,10 @@
         <v>128</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
@@ -4627,10 +4600,10 @@
         <v>129</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
@@ -4641,10 +4614,10 @@
         <v>130</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E120" s="1">
         <v>0</v>
@@ -4652,13 +4625,13 @@
     </row>
     <row r="121" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="E121" s="1">
         <v>0</v>
@@ -4666,13 +4639,13 @@
     </row>
     <row r="122" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E122" s="1">
         <v>0</v>
@@ -4680,13 +4653,13 @@
     </row>
     <row r="123" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -4694,13 +4667,13 @@
     </row>
     <row r="124" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -4709,24 +4682,24 @@
         <v>-20</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -4734,13 +4707,13 @@
     </row>
     <row r="126" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E126" s="1">
         <v>0</v>
@@ -4748,13 +4721,13 @@
     </row>
     <row r="127" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="E127" s="1">
         <v>0</v>
@@ -4762,13 +4735,13 @@
     </row>
     <row r="128" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -4776,13 +4749,13 @@
     </row>
     <row r="129" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="E129" s="1">
         <v>0</v>
@@ -4790,13 +4763,13 @@
     </row>
     <row r="130" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="E130" s="1">
         <v>2</v>
@@ -4804,13 +4777,13 @@
     </row>
     <row r="131" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="E131" s="1">
         <v>2</v>
@@ -4818,13 +4791,13 @@
     </row>
     <row r="132" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="E132" s="1">
         <v>0</v>
@@ -4832,57 +4805,15 @@
     </row>
     <row r="133" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="E133" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>1132</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E134" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>1133</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E135" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>1134</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E136" s="1">
         <v>2</v>
       </c>
     </row>
